--- a/S6.xlsx
+++ b/S6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khristine.bosquillos\Desktop\Acquisition Auto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BAJ-LAP-012\Desktop\acquisition_and_social_automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D528CC-1A79-400F-8210-43DEB4741914}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9DA442-4572-4376-8483-E3BBBB380926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25770" windowHeight="7965" xr2:uid="{24206240-3658-4323-92C5-B602B0961ABF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{24206240-3658-4323-92C5-B602B0961ABF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>s6strafficstars</t>
   </si>
@@ -172,6 +172,159 @@
   </si>
   <si>
     <t>paarlroyals</t>
+  </si>
+  <si>
+    <t>s6adcashnav</t>
+  </si>
+  <si>
+    <t>s6trafnomnav</t>
+  </si>
+  <si>
+    <t>s6adsterranav</t>
+  </si>
+  <si>
+    <t>s6flatadnav</t>
+  </si>
+  <si>
+    <t>s6adcashpknav</t>
+  </si>
+  <si>
+    <t>s6ceappbdt</t>
+  </si>
+  <si>
+    <t>s6cricbuzzbdt</t>
+  </si>
+  <si>
+    <t>s6espnbdt</t>
+  </si>
+  <si>
+    <t>s6ceapppkr</t>
+  </si>
+  <si>
+    <t>s6cricbuzzpkr</t>
+  </si>
+  <si>
+    <t>s6espnpkr</t>
+  </si>
+  <si>
+    <t>adss6bdpush</t>
+  </si>
+  <si>
+    <t>adxs6pkpush</t>
+  </si>
+  <si>
+    <t>adss6pkpush</t>
+  </si>
+  <si>
+    <t>s6flatadpknav</t>
+  </si>
+  <si>
+    <t>tsts6bdpush</t>
+  </si>
+  <si>
+    <t>svgdnbdt6s</t>
+  </si>
+  <si>
+    <t>cabd6s</t>
+  </si>
+  <si>
+    <t>caigbd6s</t>
+  </si>
+  <si>
+    <t>stkitt</t>
+  </si>
+  <si>
+    <t>kieronpollard</t>
+  </si>
+  <si>
+    <t>s6quorainr</t>
+  </si>
+  <si>
+    <t>s6hindustaninr</t>
+  </si>
+  <si>
+    <t>s6sportstigerinr</t>
+  </si>
+  <si>
+    <t>s6tapmadpkr</t>
+  </si>
+  <si>
+    <t>adxs6bdpop</t>
+  </si>
+  <si>
+    <t>ezms6bdtpop</t>
+  </si>
+  <si>
+    <t>ezms6bdpush</t>
+  </si>
+  <si>
+    <t>adxs6pkntv</t>
+  </si>
+  <si>
+    <t>tgbd6s</t>
+  </si>
+  <si>
+    <t>ads6pkpop</t>
+  </si>
+  <si>
+    <t>pwabd6s</t>
+  </si>
+  <si>
+    <t>daos6pkpush</t>
+  </si>
+  <si>
+    <t>hils6pop</t>
+  </si>
+  <si>
+    <t>cxs6shabbdt</t>
+  </si>
+  <si>
+    <t>cxs6shabpkr</t>
+  </si>
+  <si>
+    <t>vlpk6s</t>
+  </si>
+  <si>
+    <t>lyfbs6pkr</t>
+  </si>
+  <si>
+    <t>lyfbs6inr</t>
+  </si>
+  <si>
+    <t>lligbd6s</t>
+  </si>
+  <si>
+    <t>lligpk6s</t>
+  </si>
+  <si>
+    <t>lligin6s</t>
+  </si>
+  <si>
+    <t>6sbdrb</t>
+  </si>
+  <si>
+    <t>6spkrb</t>
+  </si>
+  <si>
+    <t>patstbd6s</t>
+  </si>
+  <si>
+    <t>patstpk6s</t>
+  </si>
+  <si>
+    <t>bvfbbd6s</t>
+  </si>
+  <si>
+    <t>bvfbpk6s</t>
+  </si>
+  <si>
+    <t>ptbd6s</t>
+  </si>
+  <si>
+    <t>ptpk6s</t>
+  </si>
+  <si>
+    <t>ptin6s</t>
   </si>
 </sst>
 </file>
@@ -523,15 +676,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075D2EF3-6A96-4AC3-A699-F60A20B4F570}">
-  <dimension ref="A1:A49"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -779,6 +932,261 @@
         <v>48</v>
       </c>
     </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
